--- a/results/Karol/results_article/o3_mini/MINIMAL_DIAGNOSES.xlsx
+++ b/results/Karol/results_article/o3_mini/MINIMAL_DIAGNOSES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakto\Desktop\Pulpit\FaultDiagnosis\FaultDiagnosis\results_article\o3_mini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ania\LLM_and_diagnosisv2\results\Karol\results_article\o3_mini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7952FE10-9F01-481E-A977-4C4E49038997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBA8B1B-CBE4-48CC-9EF9-2B81CC893B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="802" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
   </bookViews>
   <sheets>
     <sheet name="MINIMAL DIAGNOSES" sheetId="4" r:id="rId1"/>
@@ -1904,9 +1904,6 @@
 O2, O5, O9</t>
   </si>
   <si>
-    <t>Example contant</t>
-  </si>
-  <si>
     <t>Observations</t>
   </si>
   <si>
@@ -6221,6 +6218,9 @@
 O1, O4
 O2, O3
 O2, O4</t>
+  </si>
+  <si>
+    <t>Example content</t>
   </si>
 </sst>
 </file>
@@ -7398,31 +7398,31 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7804,166 +7804,166 @@
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="B1:BP103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="AH82" sqref="AH82"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="46" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="52" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="58" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="64" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="17.7109375" style="1"/>
+    <col min="69" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="15" thickBot="1"/>
+    <row r="1" spans="2:68" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:68" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="61" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="61" t="s">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="61" t="s">
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="61" t="s">
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="61" t="s">
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="61" t="s">
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="61" t="s">
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="61" t="s">
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="63"/>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="61" t="s">
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="BE2" s="63"/>
-      <c r="BF2" s="63"/>
-      <c r="BG2" s="63"/>
-      <c r="BH2" s="63"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="61" t="s">
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="63"/>
-      <c r="BN2" s="63"/>
-      <c r="BO2" s="64"/>
+      <c r="BK2" s="57"/>
+      <c r="BL2" s="57"/>
+      <c r="BM2" s="57"/>
+      <c r="BN2" s="57"/>
+      <c r="BO2" s="58"/>
     </row>
-    <row r="3" spans="2:68" ht="165.75" thickBot="1">
+    <row r="3" spans="2:68" ht="152.4" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="E3" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>117</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>76</v>
@@ -8155,15 +8155,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="2:68" ht="99.75">
+    <row r="4" spans="2:68" ht="96.6">
       <c r="B4" s="21">
         <v>1</v>
       </c>
       <c r="C4" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>118</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>119</v>
       </c>
       <c r="E4" s="54">
         <v>0</v>
@@ -8338,13 +8338,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:68" ht="99.75">
+    <row r="5" spans="2:68" ht="96.6">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="54">
         <v>2</v>
@@ -8541,13 +8541,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:68" ht="99.75">
+    <row r="6" spans="2:68" ht="96.6">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="54">
         <v>2</v>
@@ -8744,13 +8744,13 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="7" spans="2:68" ht="99.75">
+    <row r="7" spans="2:68" ht="96.6">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="54">
         <v>2</v>
@@ -8947,13 +8947,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:68" ht="120">
+    <row r="8" spans="2:68" ht="115.2">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="54">
         <v>3</v>
@@ -8999,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T8" s="34">
         <v>8</v>
@@ -9017,7 +9017,7 @@
         <v>1</v>
       </c>
       <c r="Y8" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z8" s="38">
         <v>8</v>
@@ -9035,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF8" s="34">
         <v>8</v>
@@ -9071,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AR8" s="34">
         <v>8</v>
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="AW8" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AX8" s="38">
         <v>8</v>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="BC8" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BD8" s="34">
         <v>8</v>
@@ -9125,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="BI8" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BJ8" s="38">
         <v>8</v>
@@ -9143,22 +9143,22 @@
         <v>1</v>
       </c>
       <c r="BO8" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BP8" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:68" ht="114">
+    <row r="9" spans="2:68" ht="110.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>124</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>125</v>
       </c>
       <c r="E9" s="54">
         <v>0</v>
@@ -9333,13 +9333,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:68" ht="114">
+    <row r="10" spans="2:68" ht="110.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="54">
         <v>1</v>
@@ -9536,13 +9536,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:68" ht="114">
+    <row r="11" spans="2:68" ht="110.4">
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="54">
         <v>1</v>
@@ -9739,13 +9739,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:68" ht="180">
+    <row r="12" spans="2:68" ht="172.8">
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="54">
         <v>2</v>
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N12" s="38">
         <v>12</v>
@@ -9845,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="AK12" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL12" s="38">
         <v>12</v>
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="BC12" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BD12" s="34">
         <v>12</v>
@@ -9935,22 +9935,22 @@
         <v>1</v>
       </c>
       <c r="BO12" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BP12" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:68" ht="114">
+    <row r="13" spans="2:68" ht="110.4">
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>129</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>130</v>
       </c>
       <c r="E13" s="54">
         <v>0</v>
@@ -10125,13 +10125,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:68" ht="114">
+    <row r="14" spans="2:68" ht="110.4">
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="54">
         <v>1</v>
@@ -10328,13 +10328,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:68" ht="114">
+    <row r="15" spans="2:68" ht="110.4">
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="54">
         <v>1</v>
@@ -10531,13 +10531,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:68" ht="180">
+    <row r="16" spans="2:68" ht="172.8">
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="54">
         <v>2</v>
@@ -10565,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N16" s="38">
         <v>12</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="BC16" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BD16" s="34">
         <v>12</v>
@@ -10727,22 +10727,22 @@
         <v>1</v>
       </c>
       <c r="BO16" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BP16" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:68" ht="114">
+    <row r="17" spans="2:68" ht="110.4">
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>134</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>135</v>
       </c>
       <c r="E17" s="54">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:68" ht="114">
+    <row r="18" spans="2:68" ht="110.4">
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="54">
         <v>1</v>
@@ -11120,13 +11120,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:68" ht="180">
+    <row r="19" spans="2:68" ht="172.8">
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="54">
         <v>2</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N19" s="38">
         <v>12</v>
@@ -11226,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="AK19" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL19" s="38">
         <v>12</v>
@@ -11244,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AR19" s="34">
         <v>12</v>
@@ -11280,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="BC19" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BD19" s="34">
         <v>12</v>
@@ -11316,20 +11316,20 @@
         <v>1</v>
       </c>
       <c r="BO19" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BP19" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:68" ht="114">
+    <row r="20" spans="2:68" ht="110.4">
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="54">
         <v>1</v>
@@ -11526,15 +11526,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:68" ht="156.75">
+    <row r="21" spans="2:68" ht="151.80000000000001">
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>138</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>139</v>
       </c>
       <c r="E21" s="54">
         <v>0</v>
@@ -11709,13 +11709,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:68" ht="156.75">
+    <row r="22" spans="2:68" ht="151.80000000000001">
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="54">
         <v>2</v>
@@ -11797,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF22" s="34">
         <v>9</v>
@@ -11912,13 +11912,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:68" ht="156.75">
+    <row r="23" spans="2:68" ht="151.80000000000001">
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="54">
         <v>2</v>
@@ -11946,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N23" s="38">
         <v>9</v>
@@ -11982,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="Y23" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z23" s="38">
         <v>9</v>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF23" s="34">
         <v>9</v>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="AW23" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AX23" s="38">
         <v>9</v>
@@ -12072,7 +12072,7 @@
         <v>1</v>
       </c>
       <c r="BC23" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BD23" s="34">
         <v>9</v>
@@ -12090,7 +12090,7 @@
         <v>1</v>
       </c>
       <c r="BI23" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BJ23" s="38">
         <v>9</v>
@@ -12108,20 +12108,20 @@
         <v>1</v>
       </c>
       <c r="BO23" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BP23" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:68" ht="315">
+    <row r="24" spans="2:68" ht="302.39999999999998">
       <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="54">
         <v>3</v>
@@ -12185,7 +12185,7 @@
         <v>0.952380952380952</v>
       </c>
       <c r="Y24" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z24" s="38">
         <v>21</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="BI24" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BJ24" s="38">
         <v>21</v>
@@ -12318,15 +12318,15 @@
         <v>0.99404761904761907</v>
       </c>
     </row>
-    <row r="25" spans="2:68" ht="128.25">
+    <row r="25" spans="2:68" ht="124.2">
       <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>143</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>144</v>
       </c>
       <c r="E25" s="54">
         <v>0</v>
@@ -12501,13 +12501,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:68" ht="128.25">
+    <row r="26" spans="2:68" ht="124.2">
       <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="54">
         <v>2</v>
@@ -12704,13 +12704,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:68" ht="128.25">
+    <row r="27" spans="2:68" ht="124.2">
       <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="54">
         <v>2</v>
@@ -12907,13 +12907,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:68" ht="128.25">
+    <row r="28" spans="2:68" ht="124.2">
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" s="54">
         <v>2</v>
@@ -13110,15 +13110,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:68" ht="142.5">
+    <row r="29" spans="2:68" ht="138">
       <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="52" t="s">
         <v>148</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>149</v>
       </c>
       <c r="E29" s="54">
         <v>0</v>
@@ -13293,13 +13293,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:68" ht="315">
+    <row r="30" spans="2:68" ht="302.39999999999998">
       <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="54">
         <v>3</v>
@@ -13327,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N30" s="38">
         <v>21</v>
@@ -13345,7 +13345,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T30" s="34">
         <v>21</v>
@@ -13381,7 +13381,7 @@
         <v>1</v>
       </c>
       <c r="AE30" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF30" s="34">
         <v>21</v>
@@ -13399,7 +13399,7 @@
         <v>1</v>
       </c>
       <c r="AK30" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL30" s="38">
         <v>21</v>
@@ -13417,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AR30" s="34">
         <v>21</v>
@@ -13453,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="BC30" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BD30" s="34">
         <v>21</v>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="BI30" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BJ30" s="38">
         <v>21</v>
@@ -13489,20 +13489,20 @@
         <v>1</v>
       </c>
       <c r="BO30" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BP30" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:68" ht="142.5">
+    <row r="31" spans="2:68" ht="138">
       <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" s="54">
         <v>4</v>
@@ -13530,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N31" s="38">
         <v>9</v>
@@ -13548,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T31" s="34">
         <v>9</v>
@@ -13566,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Z31" s="38">
         <v>9</v>
@@ -13584,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="AE31" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF31" s="34">
         <v>9</v>
@@ -13602,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="AK31" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL31" s="38">
         <v>9</v>
@@ -13620,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AR31" s="34">
         <v>9</v>
@@ -13638,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="AW31" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AX31" s="38">
         <v>9</v>
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="BC31" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BD31" s="34">
         <v>9</v>
@@ -13674,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="BI31" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BJ31" s="38">
         <v>9</v>
@@ -13692,20 +13692,20 @@
         <v>1</v>
       </c>
       <c r="BO31" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BP31" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:68" ht="315">
+    <row r="32" spans="2:68" ht="302.39999999999998">
       <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="C32" s="59"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="54">
         <v>3</v>
@@ -13733,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N32" s="38">
         <v>21</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="AK32" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL32" s="38">
         <v>21</v>
@@ -13841,7 +13841,7 @@
         <v>0.952380952380952</v>
       </c>
       <c r="AW32" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AX32" s="38">
         <v>21</v>
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="BC32" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BD32" s="34">
         <v>21</v>
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="BI32" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BJ32" s="38">
         <v>21</v>
@@ -13895,20 +13895,20 @@
         <v>0.952380952380952</v>
       </c>
       <c r="BO32" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BP32" s="20">
         <f t="shared" si="1"/>
         <v>0.86309523809523792</v>
       </c>
     </row>
-    <row r="33" spans="2:68" ht="409.5">
+    <row r="33" spans="2:68" ht="409.6">
       <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" s="54">
         <v>5</v>
@@ -13936,7 +13936,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N33" s="38">
         <v>36</v>
@@ -13954,7 +13954,7 @@
         <v>0.8</v>
       </c>
       <c r="S33" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T33" s="34">
         <v>4</v>
@@ -13972,7 +13972,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="Y33" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Z33" s="38">
         <v>13</v>
@@ -13990,7 +13990,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="AE33" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF33" s="34">
         <v>25</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AL33" s="38">
         <v>13</v>
@@ -14026,7 +14026,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="AQ33" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AR33" s="34">
         <v>12</v>
@@ -14044,7 +14044,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="AW33" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AX33" s="38">
         <v>13</v>
@@ -14062,7 +14062,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="BC33" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BD33" s="34">
         <v>13</v>
@@ -14080,7 +14080,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="BI33" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BJ33" s="38">
         <v>4</v>
@@ -14098,20 +14098,20 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="BO33" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BP33" s="20">
         <f t="shared" si="1"/>
         <v>0.1666666666666666</v>
       </c>
     </row>
-    <row r="34" spans="2:68" ht="409.5">
+    <row r="34" spans="2:68" ht="409.6">
       <c r="B34" s="3">
         <v>31</v>
       </c>
-      <c r="C34" s="59"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34" s="54">
         <v>5</v>
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N34" s="38">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         <v>0.86206896551724099</v>
       </c>
       <c r="S34" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T34" s="34">
         <v>9</v>
@@ -14175,7 +14175,7 @@
         <v>0.31034482758620602</v>
       </c>
       <c r="Y34" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z34" s="38">
         <v>13</v>
@@ -14193,7 +14193,7 @@
         <v>0.44827586206896503</v>
       </c>
       <c r="AE34" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF34" s="34">
         <v>0</v>
@@ -14229,7 +14229,7 @@
         <v>0.86206896551724099</v>
       </c>
       <c r="AQ34" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR34" s="34">
         <v>25</v>
@@ -14247,7 +14247,7 @@
         <v>0.86206896551724099</v>
       </c>
       <c r="AW34" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AX34" s="38">
         <v>25</v>
@@ -14265,7 +14265,7 @@
         <v>0.86206896551724099</v>
       </c>
       <c r="BC34" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BD34" s="34">
         <v>9</v>
@@ -14283,7 +14283,7 @@
         <v>0.17241379310344801</v>
       </c>
       <c r="BI34" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BJ34" s="38">
         <v>24</v>
@@ -14301,20 +14301,20 @@
         <v>0.82758620689655105</v>
       </c>
       <c r="BO34" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BP34" s="20">
         <f t="shared" si="1"/>
         <v>0.64655172413793061</v>
       </c>
     </row>
-    <row r="35" spans="2:68" ht="356.25">
+    <row r="35" spans="2:68" ht="345">
       <c r="B35" s="3">
         <v>32</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" s="54">
         <v>4</v>
@@ -14342,7 +14342,7 @@
         <v>0.64</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N35" s="38">
         <v>16</v>
@@ -14360,7 +14360,7 @@
         <v>0.64</v>
       </c>
       <c r="S35" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T35" s="34">
         <v>17</v>
@@ -14378,7 +14378,7 @@
         <v>0.68</v>
       </c>
       <c r="Y35" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z35" s="38">
         <v>16</v>
@@ -14396,7 +14396,7 @@
         <v>0.64</v>
       </c>
       <c r="AE35" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF35" s="34">
         <v>17</v>
@@ -14414,7 +14414,7 @@
         <v>0.68</v>
       </c>
       <c r="AK35" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL35" s="38">
         <v>0</v>
@@ -14450,7 +14450,7 @@
         <v>0.84</v>
       </c>
       <c r="AW35" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AX35" s="38">
         <v>17</v>
@@ -14468,7 +14468,7 @@
         <v>0.68</v>
       </c>
       <c r="BC35" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BD35" s="34">
         <v>17</v>
@@ -14486,7 +14486,7 @@
         <v>0.68</v>
       </c>
       <c r="BI35" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BJ35" s="38">
         <v>17</v>
@@ -14504,20 +14504,20 @@
         <v>0.68</v>
       </c>
       <c r="BO35" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BP35" s="20">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="2:68" ht="142.5">
+    <row r="36" spans="2:68" ht="138">
       <c r="B36" s="3">
         <v>33</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" s="54">
         <v>3</v>
@@ -14563,7 +14563,7 @@
         <v>0.44444444444444398</v>
       </c>
       <c r="S36" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T36" s="34">
         <v>9</v>
@@ -14617,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="AK36" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL36" s="38">
         <v>0</v>
@@ -14714,15 +14714,15 @@
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="37" spans="2:68" ht="242.25">
+    <row r="37" spans="2:68" ht="234.6">
       <c r="B37" s="3">
         <v>34</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="52" t="s">
         <v>157</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>158</v>
       </c>
       <c r="E37" s="54">
         <v>0</v>
@@ -14897,13 +14897,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:68" ht="409.5">
+    <row r="38" spans="2:68" ht="409.6">
       <c r="B38" s="3">
         <v>35</v>
       </c>
-      <c r="C38" s="59"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E38" s="54">
         <v>5</v>
@@ -14931,7 +14931,7 @@
         <v>0.40816326530612201</v>
       </c>
       <c r="M38" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N38" s="38">
         <v>29</v>
@@ -14949,7 +14949,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="S38" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T38" s="34">
         <v>0</v>
@@ -14985,7 +14985,7 @@
         <v>0.48979591836734598</v>
       </c>
       <c r="AE38" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF38" s="34">
         <v>20</v>
@@ -15003,7 +15003,7 @@
         <v>0.40816326530612201</v>
       </c>
       <c r="AK38" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL38" s="38">
         <v>33</v>
@@ -15021,7 +15021,7 @@
         <v>0.67346938775510201</v>
       </c>
       <c r="AQ38" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AR38" s="34">
         <v>29</v>
@@ -15039,7 +15039,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="AW38" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AX38" s="38">
         <v>25</v>
@@ -15057,7 +15057,7 @@
         <v>0.51020408163265296</v>
       </c>
       <c r="BC38" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BD38" s="34">
         <v>0</v>
@@ -15100,13 +15100,13 @@
         <v>0.39540816326530576</v>
       </c>
     </row>
-    <row r="39" spans="2:68" ht="409.5">
+    <row r="39" spans="2:68" ht="409.6">
       <c r="B39" s="3">
         <v>36</v>
       </c>
-      <c r="C39" s="59"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E39" s="54">
         <v>3</v>
@@ -15134,7 +15134,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N39" s="38">
         <v>21</v>
@@ -15152,7 +15152,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="S39" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T39" s="34">
         <v>21</v>
@@ -15170,7 +15170,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="Y39" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z39" s="38">
         <v>21</v>
@@ -15188,7 +15188,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="AE39" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF39" s="34">
         <v>21</v>
@@ -15206,7 +15206,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="AK39" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL39" s="38">
         <v>21</v>
@@ -15224,7 +15224,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="AQ39" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AR39" s="34">
         <v>25</v>
@@ -15242,7 +15242,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="AW39" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX39" s="38">
         <v>21</v>
@@ -15260,7 +15260,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="BC39" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BD39" s="34">
         <v>21</v>
@@ -15278,7 +15278,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="BI39" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BJ39" s="38">
         <v>21</v>
@@ -15296,20 +15296,20 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="BO39" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BP39" s="20">
         <f t="shared" si="1"/>
         <v>0.56756756756756699</v>
       </c>
     </row>
-    <row r="40" spans="2:68" ht="409.5">
+    <row r="40" spans="2:68" ht="409.6">
       <c r="B40" s="3">
         <v>37</v>
       </c>
-      <c r="C40" s="59"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E40" s="54">
         <v>6</v>
@@ -15337,7 +15337,7 @@
         <v>0.48484848484848397</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N40" s="38">
         <v>80</v>
@@ -15355,7 +15355,7 @@
         <v>0.48484848484848397</v>
       </c>
       <c r="S40" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T40" s="34">
         <v>12</v>
@@ -15373,7 +15373,7 @@
         <v>7.2727272727272696E-2</v>
       </c>
       <c r="Y40" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z40" s="38">
         <v>80</v>
@@ -15391,7 +15391,7 @@
         <v>0.48484848484848397</v>
       </c>
       <c r="AE40" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF40" s="34">
         <v>10</v>
@@ -15409,7 +15409,7 @@
         <v>6.0606060606060601E-2</v>
       </c>
       <c r="AK40" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL40" s="38">
         <v>80</v>
@@ -15427,7 +15427,7 @@
         <v>0.48484848484848397</v>
       </c>
       <c r="AQ40" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AR40" s="34">
         <v>80</v>
@@ -15445,7 +15445,7 @@
         <v>0.48484848484848397</v>
       </c>
       <c r="AW40" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AX40" s="38">
         <v>10</v>
@@ -15463,7 +15463,7 @@
         <v>6.0606060606060601E-2</v>
       </c>
       <c r="BC40" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BD40" s="34">
         <v>0</v>
@@ -15506,13 +15506,13 @@
         <v>0.31969696969696915</v>
       </c>
     </row>
-    <row r="41" spans="2:68" ht="409.5">
+    <row r="41" spans="2:68" ht="409.6">
       <c r="B41" s="3">
         <v>38</v>
       </c>
-      <c r="C41" s="59"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41" s="54">
         <v>3</v>
@@ -15540,7 +15540,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="M41" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N41" s="38">
         <v>21</v>
@@ -15558,7 +15558,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="S41" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T41" s="34">
         <v>21</v>
@@ -15576,7 +15576,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="Y41" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z41" s="38">
         <v>21</v>
@@ -15594,7 +15594,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="AE41" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF41" s="34">
         <v>17</v>
@@ -15612,7 +15612,7 @@
         <v>8.1081081081081002E-2</v>
       </c>
       <c r="AK41" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL41" s="38">
         <v>21</v>
@@ -15630,7 +15630,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="AQ41" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AR41" s="34">
         <v>21</v>
@@ -15648,7 +15648,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="AW41" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AX41" s="38">
         <v>21</v>
@@ -15666,7 +15666,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="BC41" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BD41" s="34">
         <v>21</v>
@@ -15684,7 +15684,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="BI41" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BJ41" s="38">
         <v>37</v>
@@ -15702,20 +15702,20 @@
         <v>1</v>
       </c>
       <c r="BO41" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BP41" s="20">
         <f t="shared" si="1"/>
         <v>0.56081081081081041</v>
       </c>
     </row>
-    <row r="42" spans="2:68" ht="242.25">
+    <row r="42" spans="2:68" ht="234.6">
       <c r="B42" s="3">
         <v>39</v>
       </c>
-      <c r="C42" s="59"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" s="54">
         <v>4</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N42" s="38">
         <v>13</v>
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T42" s="34">
         <v>13</v>
@@ -15779,7 +15779,7 @@
         <v>1</v>
       </c>
       <c r="Y42" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z42" s="38">
         <v>13</v>
@@ -15797,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="AE42" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF42" s="34">
         <v>5</v>
@@ -15815,7 +15815,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="AK42" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL42" s="38">
         <v>13</v>
@@ -15833,7 +15833,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AR42" s="34">
         <v>5</v>
@@ -15851,7 +15851,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="AW42" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX42" s="38">
         <v>5</v>
@@ -15869,7 +15869,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="BC42" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BD42" s="34">
         <v>13</v>
@@ -15887,7 +15887,7 @@
         <v>1</v>
       </c>
       <c r="BI42" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ42" s="38">
         <v>13</v>
@@ -15905,20 +15905,20 @@
         <v>1</v>
       </c>
       <c r="BO42" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BP42" s="20">
         <f t="shared" si="1"/>
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="43" spans="2:68" ht="409.5">
+    <row r="43" spans="2:68" ht="409.6">
       <c r="B43" s="3">
         <v>40</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E43" s="54">
         <v>5</v>
@@ -15946,7 +15946,7 @@
         <v>0.51020408163265296</v>
       </c>
       <c r="M43" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N43" s="38">
         <v>49</v>
@@ -15964,7 +15964,7 @@
         <v>0.97959183673469297</v>
       </c>
       <c r="S43" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T43" s="34">
         <v>33</v>
@@ -15982,7 +15982,7 @@
         <v>0.67346938775510201</v>
       </c>
       <c r="Y43" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z43" s="38">
         <v>25</v>
@@ -16000,7 +16000,7 @@
         <v>0.51020408163265296</v>
       </c>
       <c r="AE43" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF43" s="34">
         <v>26</v>
@@ -16018,7 +16018,7 @@
         <v>0.530612244897959</v>
       </c>
       <c r="AK43" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL43" s="38">
         <v>25</v>
@@ -16036,7 +16036,7 @@
         <v>0.51020408163265296</v>
       </c>
       <c r="AQ43" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AR43" s="34">
         <v>29</v>
@@ -16054,7 +16054,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="AW43" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AX43" s="38">
         <v>25</v>
@@ -16072,7 +16072,7 @@
         <v>0.51020408163265296</v>
       </c>
       <c r="BC43" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BD43" s="34">
         <v>0</v>
@@ -16108,20 +16108,20 @@
         <v>0.40816326530612201</v>
       </c>
       <c r="BO43" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BP43" s="20">
         <f t="shared" si="1"/>
         <v>0.58928571428571397</v>
       </c>
     </row>
-    <row r="44" spans="2:68" ht="409.5">
+    <row r="44" spans="2:68" ht="409.6">
       <c r="B44" s="3">
         <v>41</v>
       </c>
-      <c r="C44" s="57"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E44" s="54">
         <v>4</v>
@@ -16149,7 +16149,7 @@
         <v>8.6021505376343996E-2</v>
       </c>
       <c r="M44" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N44" s="38">
         <v>8</v>
@@ -16167,7 +16167,7 @@
         <v>8.6021505376343996E-2</v>
       </c>
       <c r="S44" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T44" s="34">
         <v>8</v>
@@ -16185,7 +16185,7 @@
         <v>8.6021505376343996E-2</v>
       </c>
       <c r="Y44" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z44" s="38">
         <v>8</v>
@@ -16203,7 +16203,7 @@
         <v>8.6021505376343996E-2</v>
       </c>
       <c r="AE44" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF44" s="34">
         <v>8</v>
@@ -16221,7 +16221,7 @@
         <v>8.6021505376343996E-2</v>
       </c>
       <c r="AK44" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL44" s="38">
         <v>4</v>
@@ -16239,7 +16239,7 @@
         <v>4.3010752688171998E-2</v>
       </c>
       <c r="AQ44" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AR44" s="34">
         <v>8</v>
@@ -16257,7 +16257,7 @@
         <v>8.6021505376343996E-2</v>
       </c>
       <c r="AW44" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AX44" s="38">
         <v>8</v>
@@ -16275,7 +16275,7 @@
         <v>8.6021505376343996E-2</v>
       </c>
       <c r="BC44" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BD44" s="34">
         <v>4</v>
@@ -16293,7 +16293,7 @@
         <v>4.3010752688171998E-2</v>
       </c>
       <c r="BI44" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BJ44" s="38">
         <v>10</v>
@@ -16311,22 +16311,22 @@
         <v>0.10752688172043</v>
       </c>
       <c r="BO44" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BP44" s="20">
         <f t="shared" si="1"/>
         <v>8.3333333333333245E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:68" ht="42.75">
+    <row r="45" spans="2:68" ht="41.4">
       <c r="B45" s="3">
         <v>42</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="52" t="s">
         <v>166</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>167</v>
       </c>
       <c r="E45" s="54">
         <v>0</v>
@@ -16501,13 +16501,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:68" ht="42.75">
+    <row r="46" spans="2:68" ht="41.4">
       <c r="B46" s="3">
         <v>43</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E46" s="54">
         <v>1</v>
@@ -16704,15 +16704,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:68" ht="71.25">
+    <row r="47" spans="2:68" ht="69">
       <c r="B47" s="3">
         <v>44</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="52" t="s">
         <v>169</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>170</v>
       </c>
       <c r="E47" s="54">
         <v>0</v>
@@ -16887,13 +16887,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:68" ht="71.25">
+    <row r="48" spans="2:68" ht="69">
       <c r="B48" s="3">
         <v>45</v>
       </c>
-      <c r="C48" s="57"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48" s="54">
         <v>1</v>
@@ -17090,15 +17090,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:68" ht="99.75">
+    <row r="49" spans="2:68" ht="96.6">
       <c r="B49" s="3">
         <v>46</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="52" t="s">
         <v>172</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>173</v>
       </c>
       <c r="E49" s="54">
         <v>0</v>
@@ -17273,13 +17273,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:68" ht="99.75">
+    <row r="50" spans="2:68" ht="96.6">
       <c r="B50" s="3">
         <v>47</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" s="54">
         <v>2</v>
@@ -17476,13 +17476,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:68" ht="99.75">
+    <row r="51" spans="2:68" ht="96.6">
       <c r="B51" s="3">
         <v>48</v>
       </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E51" s="54">
         <v>2</v>
@@ -17679,13 +17679,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:68" ht="99.75">
+    <row r="52" spans="2:68" ht="96.6">
       <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C52" s="57"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="54">
         <v>2</v>
@@ -17882,15 +17882,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:68" ht="114">
+    <row r="53" spans="2:68" ht="110.4">
       <c r="B53" s="3">
         <v>50</v>
       </c>
-      <c r="C53" s="56" t="s">
-        <v>177</v>
+      <c r="C53" s="63" t="s">
+        <v>176</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E53" s="54">
         <v>0</v>
@@ -18065,13 +18065,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:68" ht="114">
+    <row r="54" spans="2:68" ht="110.4">
       <c r="B54" s="3">
         <v>51</v>
       </c>
-      <c r="C54" s="59"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E54" s="54">
         <v>1</v>
@@ -18268,13 +18268,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:68" ht="114">
+    <row r="55" spans="2:68" ht="110.4">
       <c r="B55" s="3">
         <v>52</v>
       </c>
-      <c r="C55" s="59"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E55" s="54">
         <v>1</v>
@@ -18471,13 +18471,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:68" ht="180">
+    <row r="56" spans="2:68" ht="172.8">
       <c r="B56" s="3">
         <v>53</v>
       </c>
-      <c r="C56" s="57"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E56" s="54">
         <v>2</v>
@@ -18505,7 +18505,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N56" s="38">
         <v>12</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="S56" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T56" s="34">
         <v>12</v>
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="AK56" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL56" s="38">
         <v>12</v>
@@ -18631,7 +18631,7 @@
         <v>1</v>
       </c>
       <c r="BC56" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BD56" s="34">
         <v>12</v>
@@ -18667,22 +18667,22 @@
         <v>1</v>
       </c>
       <c r="BO56" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BP56" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:68" ht="114">
+    <row r="57" spans="2:68" ht="110.4">
       <c r="B57" s="3">
         <v>54</v>
       </c>
-      <c r="C57" s="56" t="s">
-        <v>181</v>
+      <c r="C57" s="63" t="s">
+        <v>180</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E57" s="54">
         <v>0</v>
@@ -18857,13 +18857,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:68" ht="114">
+    <row r="58" spans="2:68" ht="110.4">
       <c r="B58" s="3">
         <v>55</v>
       </c>
-      <c r="C58" s="59"/>
+      <c r="C58" s="61"/>
       <c r="D58" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E58" s="54">
         <v>1</v>
@@ -19060,13 +19060,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:68" ht="114">
+    <row r="59" spans="2:68" ht="110.4">
       <c r="B59" s="3">
         <v>56</v>
       </c>
-      <c r="C59" s="59"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E59" s="54">
         <v>1</v>
@@ -19263,13 +19263,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:68" ht="180">
+    <row r="60" spans="2:68" ht="172.8">
       <c r="B60" s="3">
         <v>57</v>
       </c>
-      <c r="C60" s="57"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E60" s="54">
         <v>2</v>
@@ -19369,7 +19369,7 @@
         <v>1</v>
       </c>
       <c r="AK60" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL60" s="38">
         <v>12</v>
@@ -19423,7 +19423,7 @@
         <v>1</v>
       </c>
       <c r="BC60" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BD60" s="34">
         <v>12</v>
@@ -19466,15 +19466,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:68" ht="114">
+    <row r="61" spans="2:68" ht="110.4">
       <c r="B61" s="3">
         <v>58</v>
       </c>
-      <c r="C61" s="56" t="s">
-        <v>182</v>
+      <c r="C61" s="63" t="s">
+        <v>181</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61" s="54">
         <v>0</v>
@@ -19649,13 +19649,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:68" ht="114">
+    <row r="62" spans="2:68" ht="110.4">
       <c r="B62" s="3">
         <v>59</v>
       </c>
-      <c r="C62" s="59"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E62" s="54">
         <v>1</v>
@@ -19852,13 +19852,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:68" ht="114">
+    <row r="63" spans="2:68" ht="110.4">
       <c r="B63" s="3">
         <v>60</v>
       </c>
-      <c r="C63" s="59"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E63" s="54">
         <v>1</v>
@@ -20055,13 +20055,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:68" ht="180">
+    <row r="64" spans="2:68" ht="172.8">
       <c r="B64" s="3">
         <v>61</v>
       </c>
-      <c r="C64" s="57"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E64" s="54">
         <v>2</v>
@@ -20089,7 +20089,7 @@
         <v>1</v>
       </c>
       <c r="M64" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N64" s="38">
         <v>12</v>
@@ -20107,7 +20107,7 @@
         <v>1</v>
       </c>
       <c r="S64" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T64" s="34">
         <v>12</v>
@@ -20125,7 +20125,7 @@
         <v>1</v>
       </c>
       <c r="Y64" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z64" s="38">
         <v>12</v>
@@ -20161,7 +20161,7 @@
         <v>1</v>
       </c>
       <c r="AK64" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL64" s="38">
         <v>12</v>
@@ -20179,7 +20179,7 @@
         <v>1</v>
       </c>
       <c r="AQ64" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AR64" s="34">
         <v>12</v>
@@ -20197,7 +20197,7 @@
         <v>1</v>
       </c>
       <c r="AW64" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AX64" s="38">
         <v>12</v>
@@ -20215,7 +20215,7 @@
         <v>1</v>
       </c>
       <c r="BC64" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BD64" s="34">
         <v>12</v>
@@ -20233,7 +20233,7 @@
         <v>1</v>
       </c>
       <c r="BI64" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BJ64" s="38">
         <v>12</v>
@@ -20251,22 +20251,22 @@
         <v>1</v>
       </c>
       <c r="BO64" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BP64" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:68" ht="156.75">
+    <row r="65" spans="2:68" ht="151.80000000000001">
       <c r="B65" s="3">
         <v>62</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="52" t="s">
         <v>183</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>184</v>
       </c>
       <c r="E65" s="54">
         <v>0</v>
@@ -20441,13 +20441,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:68" ht="156.75">
+    <row r="66" spans="2:68" ht="151.80000000000001">
       <c r="B66" s="3">
         <v>63</v>
       </c>
-      <c r="C66" s="59"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E66" s="54">
         <v>1</v>
@@ -20644,13 +20644,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:68" ht="156.75">
+    <row r="67" spans="2:68" ht="151.80000000000001">
       <c r="B67" s="3">
         <v>64</v>
       </c>
-      <c r="C67" s="59"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E67" s="54">
         <v>2</v>
@@ -20678,7 +20678,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N67" s="38">
         <v>9</v>
@@ -20696,7 +20696,7 @@
         <v>1</v>
       </c>
       <c r="S67" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T67" s="34">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>1</v>
       </c>
       <c r="Y67" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z67" s="38">
         <v>3</v>
@@ -20732,7 +20732,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="AE67" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF67" s="34">
         <v>0</v>
@@ -20768,7 +20768,7 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="AQ67" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AR67" s="34">
         <v>9</v>
@@ -20786,7 +20786,7 @@
         <v>1</v>
       </c>
       <c r="AW67" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AX67" s="38">
         <v>9</v>
@@ -20804,7 +20804,7 @@
         <v>1</v>
       </c>
       <c r="BC67" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BD67" s="34">
         <v>9</v>
@@ -20822,7 +20822,7 @@
         <v>1</v>
       </c>
       <c r="BI67" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BJ67" s="38">
         <v>9</v>
@@ -20840,20 +20840,20 @@
         <v>1</v>
       </c>
       <c r="BO67" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BP67" s="20">
         <f t="shared" si="1"/>
         <v>0.76388888888888873</v>
       </c>
     </row>
-    <row r="68" spans="2:68" ht="315">
+    <row r="68" spans="2:68" ht="302.39999999999998">
       <c r="B68" s="3">
         <v>65</v>
       </c>
-      <c r="C68" s="57"/>
+      <c r="C68" s="62"/>
       <c r="D68" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E68" s="54">
         <v>3</v>
@@ -20899,7 +20899,7 @@
         <v>0.952380952380952</v>
       </c>
       <c r="S68" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T68" s="34">
         <v>21</v>
@@ -21050,15 +21050,15 @@
         <v>0.99404761904761907</v>
       </c>
     </row>
-    <row r="69" spans="2:68" ht="128.25">
+    <row r="69" spans="2:68" ht="124.2">
       <c r="B69" s="3">
         <v>66</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="52" t="s">
         <v>188</v>
-      </c>
-      <c r="D69" s="52" t="s">
-        <v>189</v>
       </c>
       <c r="E69" s="54">
         <v>0</v>
@@ -21235,13 +21235,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:68" ht="128.25">
+    <row r="70" spans="2:68" ht="124.2">
       <c r="B70" s="3">
         <v>67</v>
       </c>
-      <c r="C70" s="59"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E70" s="54">
         <v>2</v>
@@ -21438,13 +21438,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:68" ht="128.25">
+    <row r="71" spans="2:68" ht="124.2">
       <c r="B71" s="3">
         <v>68</v>
       </c>
-      <c r="C71" s="59"/>
+      <c r="C71" s="61"/>
       <c r="D71" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E71" s="54">
         <v>2</v>
@@ -21641,13 +21641,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:68" ht="135">
+    <row r="72" spans="2:68" ht="129.6">
       <c r="B72" s="3">
         <v>69</v>
       </c>
-      <c r="C72" s="57"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72" s="54">
         <v>3</v>
@@ -21675,7 +21675,7 @@
         <v>1</v>
       </c>
       <c r="M72" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N72" s="38">
         <v>9</v>
@@ -21711,7 +21711,7 @@
         <v>1</v>
       </c>
       <c r="Y72" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z72" s="38">
         <v>9</v>
@@ -21747,7 +21747,7 @@
         <v>1</v>
       </c>
       <c r="AK72" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AL72" s="38">
         <v>9</v>
@@ -21783,7 +21783,7 @@
         <v>1</v>
       </c>
       <c r="AW72" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AX72" s="38">
         <v>9</v>
@@ -21801,7 +21801,7 @@
         <v>1</v>
       </c>
       <c r="BC72" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BD72" s="34">
         <v>9</v>
@@ -21819,7 +21819,7 @@
         <v>1</v>
       </c>
       <c r="BI72" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BJ72" s="38">
         <v>9</v>
@@ -21844,15 +21844,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:68" ht="142.5">
+    <row r="73" spans="2:68" ht="138">
       <c r="B73" s="3">
         <v>70</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="52" t="s">
         <v>193</v>
-      </c>
-      <c r="D73" s="52" t="s">
-        <v>194</v>
       </c>
       <c r="E73" s="54">
         <v>0</v>
@@ -22027,13 +22027,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:68" ht="315">
+    <row r="74" spans="2:68" ht="302.39999999999998">
       <c r="B74" s="3">
         <v>71</v>
       </c>
-      <c r="C74" s="59"/>
+      <c r="C74" s="61"/>
       <c r="D74" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E74" s="54">
         <v>3</v>
@@ -22061,7 +22061,7 @@
         <v>1</v>
       </c>
       <c r="M74" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N74" s="38">
         <v>21</v>
@@ -22079,7 +22079,7 @@
         <v>1</v>
       </c>
       <c r="S74" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T74" s="34">
         <v>21</v>
@@ -22169,7 +22169,7 @@
         <v>0.61904761904761896</v>
       </c>
       <c r="AW74" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX74" s="38">
         <v>21</v>
@@ -22187,7 +22187,7 @@
         <v>1</v>
       </c>
       <c r="BC74" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BD74" s="34">
         <v>21</v>
@@ -22223,20 +22223,20 @@
         <v>1</v>
       </c>
       <c r="BO74" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BP74" s="20">
         <f t="shared" si="4"/>
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="75" spans="2:68" ht="409.5">
+    <row r="75" spans="2:68" ht="400.2">
       <c r="B75" s="3">
         <v>72</v>
       </c>
-      <c r="C75" s="59"/>
+      <c r="C75" s="61"/>
       <c r="D75" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E75" s="54">
         <v>5</v>
@@ -22264,7 +22264,7 @@
         <v>0.31034482758620602</v>
       </c>
       <c r="M75" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N75" s="38">
         <v>9</v>
@@ -22282,7 +22282,7 @@
         <v>0.31034482758620602</v>
       </c>
       <c r="S75" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T75" s="34">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>0.31034482758620602</v>
       </c>
       <c r="Y75" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z75" s="38">
         <v>9</v>
@@ -22318,7 +22318,7 @@
         <v>0.31034482758620602</v>
       </c>
       <c r="AE75" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF75" s="34">
         <v>5</v>
@@ -22336,7 +22336,7 @@
         <v>0.17241379310344801</v>
       </c>
       <c r="AK75" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AL75" s="38">
         <v>9</v>
@@ -22354,7 +22354,7 @@
         <v>0.31034482758620602</v>
       </c>
       <c r="AQ75" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AR75" s="34">
         <v>14</v>
@@ -22372,7 +22372,7 @@
         <v>0.37931034482758602</v>
       </c>
       <c r="AW75" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AX75" s="38">
         <v>9</v>
@@ -22390,7 +22390,7 @@
         <v>0.13793103448275801</v>
       </c>
       <c r="BC75" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BD75" s="34">
         <v>3</v>
@@ -22408,7 +22408,7 @@
         <v>0</v>
       </c>
       <c r="BI75" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BJ75" s="38">
         <v>9</v>
@@ -22426,20 +22426,20 @@
         <v>0.31034482758620602</v>
       </c>
       <c r="BO75" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BP75" s="20">
         <f t="shared" si="4"/>
         <v>0.30172413793103375</v>
       </c>
     </row>
-    <row r="76" spans="2:68" ht="409.5">
+    <row r="76" spans="2:68" ht="409.6">
       <c r="B76" s="3">
         <v>73</v>
       </c>
-      <c r="C76" s="59"/>
+      <c r="C76" s="61"/>
       <c r="D76" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E76" s="54">
         <v>5</v>
@@ -22467,7 +22467,7 @@
         <v>0.157894736842105</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N76" s="38">
         <v>9</v>
@@ -22485,7 +22485,7 @@
         <v>0.157894736842105</v>
       </c>
       <c r="S76" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T76" s="34">
         <v>1</v>
@@ -22503,7 +22503,7 @@
         <v>1.7543859649122799E-2</v>
       </c>
       <c r="Y76" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z76" s="38">
         <v>9</v>
@@ -22521,7 +22521,7 @@
         <v>0.157894736842105</v>
       </c>
       <c r="AE76" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF76" s="34">
         <v>1</v>
@@ -22539,7 +22539,7 @@
         <v>1.7543859649122799E-2</v>
       </c>
       <c r="AK76" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL76" s="38">
         <v>49</v>
@@ -22557,7 +22557,7 @@
         <v>0.859649122807017</v>
       </c>
       <c r="AQ76" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AR76" s="34">
         <v>1</v>
@@ -22575,7 +22575,7 @@
         <v>1.7543859649122799E-2</v>
       </c>
       <c r="AW76" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX76" s="38">
         <v>49</v>
@@ -22593,7 +22593,7 @@
         <v>0.859649122807017</v>
       </c>
       <c r="BC76" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BD76" s="34">
         <v>9</v>
@@ -22611,7 +22611,7 @@
         <v>0.157894736842105</v>
       </c>
       <c r="BI76" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BJ76" s="38">
         <v>57</v>
@@ -22629,20 +22629,20 @@
         <v>1</v>
       </c>
       <c r="BO76" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP76" s="20">
         <f t="shared" si="4"/>
         <v>0.29824561403508754</v>
       </c>
     </row>
-    <row r="77" spans="2:68" ht="142.5">
+    <row r="77" spans="2:68" ht="138">
       <c r="B77" s="3">
         <v>74</v>
       </c>
-      <c r="C77" s="59"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" s="54">
         <v>2</v>
@@ -22760,7 +22760,7 @@
         <v>1</v>
       </c>
       <c r="AQ77" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AR77" s="34">
         <v>9</v>
@@ -22839,13 +22839,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:68" ht="142.5">
+    <row r="78" spans="2:68" ht="138">
       <c r="B78" s="3">
         <v>75</v>
       </c>
-      <c r="C78" s="59"/>
+      <c r="C78" s="61"/>
       <c r="D78" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E78" s="54">
         <v>2</v>
@@ -23035,20 +23035,20 @@
         <v>0.55555555555555503</v>
       </c>
       <c r="BO78" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BP78" s="20">
         <f t="shared" si="4"/>
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="79" spans="2:68" ht="315">
+    <row r="79" spans="2:68" ht="302.39999999999998">
       <c r="B79" s="3">
         <v>76</v>
       </c>
-      <c r="C79" s="59"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E79" s="54">
         <v>3</v>
@@ -23076,7 +23076,7 @@
         <v>0.238095238095238</v>
       </c>
       <c r="M79" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N79" s="38">
         <v>21</v>
@@ -23112,7 +23112,7 @@
         <v>1</v>
       </c>
       <c r="Y79" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Z79" s="38">
         <v>21</v>
@@ -23130,7 +23130,7 @@
         <v>1</v>
       </c>
       <c r="AE79" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF79" s="34">
         <v>1</v>
@@ -23148,7 +23148,7 @@
         <v>4.7619047619047603E-2</v>
       </c>
       <c r="AK79" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL79" s="38">
         <v>1</v>
@@ -23166,7 +23166,7 @@
         <v>4.7619047619047603E-2</v>
       </c>
       <c r="AQ79" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AR79" s="34">
         <v>21</v>
@@ -23184,7 +23184,7 @@
         <v>1</v>
       </c>
       <c r="AW79" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AX79" s="38">
         <v>21</v>
@@ -23220,7 +23220,7 @@
         <v>1</v>
       </c>
       <c r="BI79" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BJ79" s="38">
         <v>21</v>
@@ -23238,20 +23238,20 @@
         <v>1</v>
       </c>
       <c r="BO79" s="40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BP79" s="20">
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="80" spans="2:68" ht="409.5">
+    <row r="80" spans="2:68" ht="409.6">
       <c r="B80" s="3">
         <v>77</v>
       </c>
-      <c r="C80" s="57"/>
+      <c r="C80" s="62"/>
       <c r="D80" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E80" s="54">
         <v>5</v>
@@ -23279,7 +23279,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="M80" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N80" s="38">
         <v>4</v>
@@ -23297,7 +23297,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="S80" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T80" s="34">
         <v>5</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="Y80" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z80" s="38">
         <v>13</v>
@@ -23333,7 +23333,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="AE80" s="39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF80" s="34">
         <v>4</v>
@@ -23351,7 +23351,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="AK80" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL80" s="38">
         <v>4</v>
@@ -23369,7 +23369,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="AQ80" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AR80" s="34">
         <v>4</v>
@@ -23387,7 +23387,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="AW80" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AX80" s="38">
         <v>4</v>
@@ -23405,7 +23405,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="BC80" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BD80" s="34">
         <v>29</v>
@@ -23423,7 +23423,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="BI80" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BJ80" s="38">
         <v>9</v>
@@ -23441,22 +23441,22 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="BO80" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BP80" s="20">
         <f t="shared" si="4"/>
         <v>7.7777777777777696E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:68" ht="242.25">
+    <row r="81" spans="2:68" ht="234.6">
       <c r="B81" s="3">
         <v>78</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="52" t="s">
         <v>202</v>
-      </c>
-      <c r="D81" s="52" t="s">
-        <v>203</v>
       </c>
       <c r="E81" s="54">
         <v>0</v>
@@ -23631,13 +23631,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:68" ht="242.25">
+    <row r="82" spans="2:68" ht="234.6">
       <c r="B82" s="3">
         <v>79</v>
       </c>
-      <c r="C82" s="59"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E82" s="54">
         <v>1</v>
@@ -23834,13 +23834,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:68" ht="409.5">
+    <row r="83" spans="2:68" ht="409.6">
       <c r="B83" s="3">
         <v>80</v>
       </c>
-      <c r="C83" s="59"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E83" s="54">
         <v>5</v>
@@ -23868,7 +23868,7 @@
         <v>0.40816326530612201</v>
       </c>
       <c r="M83" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N83" s="38">
         <v>29</v>
@@ -23886,7 +23886,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="S83" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T83" s="34">
         <v>29</v>
@@ -23904,7 +23904,7 @@
         <v>0.46938775510204001</v>
       </c>
       <c r="Y83" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z83" s="38">
         <v>25</v>
@@ -23922,7 +23922,7 @@
         <v>0.51020408163265296</v>
       </c>
       <c r="AE83" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF83" s="34">
         <v>24</v>
@@ -23940,7 +23940,7 @@
         <v>0.48979591836734598</v>
       </c>
       <c r="AK83" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AL83" s="38">
         <v>29</v>
@@ -23958,7 +23958,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="AQ83" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AR83" s="34">
         <v>20</v>
@@ -23976,7 +23976,7 @@
         <v>0.40816326530612201</v>
       </c>
       <c r="AW83" s="37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX83" s="38">
         <v>20</v>
@@ -23994,7 +23994,7 @@
         <v>0.40816326530612201</v>
       </c>
       <c r="BC83" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BD83" s="34">
         <v>29</v>
@@ -24012,7 +24012,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="BI83" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BJ83" s="38">
         <v>29</v>
@@ -24030,20 +24030,20 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="BO83" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BP83" s="20">
         <f t="shared" si="4"/>
         <v>0.50765306122448928</v>
       </c>
     </row>
-    <row r="84" spans="2:68" ht="409.5">
+    <row r="84" spans="2:68" ht="409.6">
       <c r="B84" s="3">
         <v>81</v>
       </c>
-      <c r="C84" s="59"/>
+      <c r="C84" s="61"/>
       <c r="D84" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E84" s="54">
         <v>3</v>
@@ -24071,7 +24071,7 @@
         <v>0.82758620689655105</v>
       </c>
       <c r="M84" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N84" s="38">
         <v>29</v>
@@ -24107,7 +24107,7 @@
         <v>0.82758620689655105</v>
       </c>
       <c r="Y84" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Z84" s="38">
         <v>29</v>
@@ -24125,7 +24125,7 @@
         <v>1</v>
       </c>
       <c r="AE84" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF84" s="34">
         <v>24</v>
@@ -24143,7 +24143,7 @@
         <v>0.82758620689655105</v>
       </c>
       <c r="AK84" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL84" s="38">
         <v>24</v>
@@ -24161,7 +24161,7 @@
         <v>0.82758620689655105</v>
       </c>
       <c r="AQ84" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR84" s="34">
         <v>29</v>
@@ -24179,7 +24179,7 @@
         <v>1</v>
       </c>
       <c r="AW84" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AX84" s="38">
         <v>29</v>
@@ -24197,7 +24197,7 @@
         <v>1</v>
       </c>
       <c r="BC84" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BD84" s="34">
         <v>24</v>
@@ -24215,7 +24215,7 @@
         <v>0.82758620689655105</v>
       </c>
       <c r="BI84" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BJ84" s="38">
         <v>24</v>
@@ -24233,20 +24233,20 @@
         <v>0.82758620689655105</v>
       </c>
       <c r="BO84" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BP84" s="20">
         <f t="shared" si="4"/>
         <v>0.89224137931034431</v>
       </c>
     </row>
-    <row r="85" spans="2:68" ht="409.5">
+    <row r="85" spans="2:68" ht="409.6">
       <c r="B85" s="3">
         <v>82</v>
       </c>
-      <c r="C85" s="59"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E85" s="54">
         <v>5</v>
@@ -24274,7 +24274,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="M85" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N85" s="38">
         <v>29</v>
@@ -24292,7 +24292,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="S85" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="T85" s="34">
         <v>30</v>
@@ -24310,7 +24310,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="Y85" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z85" s="38">
         <v>29</v>
@@ -24328,7 +24328,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="AE85" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF85" s="34">
         <v>29</v>
@@ -24346,7 +24346,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="AK85" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL85" s="38">
         <v>29</v>
@@ -24364,7 +24364,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="AQ85" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AR85" s="34">
         <v>29</v>
@@ -24382,7 +24382,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="AW85" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AX85" s="38">
         <v>31</v>
@@ -24400,7 +24400,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="BC85" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BD85" s="34">
         <v>29</v>
@@ -24418,7 +24418,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="BI85" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BJ85" s="38">
         <v>29</v>
@@ -24436,20 +24436,20 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="BO85" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BP85" s="20">
         <f t="shared" si="4"/>
         <v>0.59183673469387699</v>
       </c>
     </row>
-    <row r="86" spans="2:68" ht="242.25">
+    <row r="86" spans="2:68" ht="234.6">
       <c r="B86" s="3">
         <v>83</v>
       </c>
-      <c r="C86" s="59"/>
+      <c r="C86" s="61"/>
       <c r="D86" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E86" s="54">
         <v>4</v>
@@ -24477,7 +24477,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="M86" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N86" s="38">
         <v>5</v>
@@ -24495,7 +24495,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="S86" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T86" s="34">
         <v>5</v>
@@ -24513,7 +24513,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="Y86" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z86" s="38">
         <v>5</v>
@@ -24531,7 +24531,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="AE86" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF86" s="34">
         <v>5</v>
@@ -24549,7 +24549,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="AK86" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL86" s="38">
         <v>5</v>
@@ -24567,7 +24567,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="AQ86" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AR86" s="34">
         <v>5</v>
@@ -24585,7 +24585,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="AW86" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AX86" s="38">
         <v>13</v>
@@ -24603,7 +24603,7 @@
         <v>1</v>
       </c>
       <c r="BC86" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BD86" s="34">
         <v>5</v>
@@ -24621,7 +24621,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="BI86" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BJ86" s="38">
         <v>5</v>
@@ -24639,20 +24639,20 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="BO86" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BP86" s="20">
         <f t="shared" si="4"/>
         <v>0.38461538461538408</v>
       </c>
     </row>
-    <row r="87" spans="2:68" ht="242.25">
+    <row r="87" spans="2:68" ht="234.6">
       <c r="B87" s="3">
         <v>84</v>
       </c>
-      <c r="C87" s="59"/>
+      <c r="C87" s="61"/>
       <c r="D87" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E87" s="54">
         <v>1</v>
@@ -24849,13 +24849,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:68" ht="409.5">
+    <row r="88" spans="2:68" ht="409.6">
       <c r="B88" s="3">
         <v>85</v>
       </c>
-      <c r="C88" s="57"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E88" s="54">
         <v>5</v>
@@ -24883,7 +24883,7 @@
         <v>0.16339869281045699</v>
       </c>
       <c r="M88" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N88" s="38">
         <v>1</v>
@@ -24901,7 +24901,7 @@
         <v>6.5359477124183E-3</v>
       </c>
       <c r="S88" s="41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T88" s="34">
         <v>11</v>
@@ -24919,7 +24919,7 @@
         <v>7.1895424836601302E-2</v>
       </c>
       <c r="Y88" s="40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z88" s="38">
         <v>1</v>
@@ -24937,7 +24937,7 @@
         <v>6.5359477124183E-3</v>
       </c>
       <c r="AE88" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF88" s="34">
         <v>5</v>
@@ -24955,7 +24955,7 @@
         <v>3.2679738562091498E-2</v>
       </c>
       <c r="AK88" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AL88" s="38">
         <v>1</v>
@@ -24973,7 +24973,7 @@
         <v>6.5359477124183E-3</v>
       </c>
       <c r="AQ88" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AR88" s="34">
         <v>5</v>
@@ -24991,7 +24991,7 @@
         <v>6.5359477124183E-3</v>
       </c>
       <c r="AW88" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AX88" s="38">
         <v>0</v>
@@ -25027,7 +25027,7 @@
         <v>6.5359477124183E-3</v>
       </c>
       <c r="BI88" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BJ88" s="38">
         <v>81</v>
@@ -25045,22 +25045,22 @@
         <v>0.52941176470588203</v>
       </c>
       <c r="BO88" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BP88" s="20">
         <f t="shared" si="4"/>
         <v>0.10294117647058812</v>
       </c>
     </row>
-    <row r="89" spans="2:68" ht="128.25">
+    <row r="89" spans="2:68" ht="124.2">
       <c r="B89" s="3">
         <v>86</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="52" t="s">
         <v>211</v>
-      </c>
-      <c r="D89" s="52" t="s">
-        <v>212</v>
       </c>
       <c r="E89" s="54">
         <v>0</v>
@@ -25235,13 +25235,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:68" ht="128.25">
+    <row r="90" spans="2:68" ht="124.2">
       <c r="B90" s="3">
         <v>87</v>
       </c>
-      <c r="C90" s="59"/>
+      <c r="C90" s="61"/>
       <c r="D90" s="52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E90" s="54">
         <v>2</v>
@@ -25438,13 +25438,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:68" ht="128.25">
+    <row r="91" spans="2:68" ht="124.2">
       <c r="B91" s="3">
         <v>88</v>
       </c>
-      <c r="C91" s="59"/>
+      <c r="C91" s="61"/>
       <c r="D91" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91" s="54">
         <v>2</v>
@@ -25508,7 +25508,7 @@
         <v>1</v>
       </c>
       <c r="Y91" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z91" s="38">
         <v>4</v>
@@ -25598,7 +25598,7 @@
         <v>1</v>
       </c>
       <c r="BC91" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BD91" s="34">
         <v>4</v>
@@ -25616,7 +25616,7 @@
         <v>1</v>
       </c>
       <c r="BI91" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BJ91" s="38">
         <v>4</v>
@@ -25641,13 +25641,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:68" ht="128.25">
+    <row r="92" spans="2:68" ht="124.2">
       <c r="B92" s="3">
         <v>89</v>
       </c>
-      <c r="C92" s="57"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E92" s="54">
         <v>3</v>
@@ -25675,7 +25675,7 @@
         <v>1</v>
       </c>
       <c r="M92" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N92" s="38">
         <v>8</v>
@@ -25729,7 +25729,7 @@
         <v>1</v>
       </c>
       <c r="AE92" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF92" s="34">
         <v>8</v>
@@ -25819,7 +25819,7 @@
         <v>1</v>
       </c>
       <c r="BI92" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BJ92" s="38">
         <v>8</v>
@@ -25837,22 +25837,22 @@
         <v>1</v>
       </c>
       <c r="BO92" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BP92" s="20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:68" ht="128.25">
+    <row r="93" spans="2:68" ht="124.2">
       <c r="B93" s="3">
         <v>90</v>
       </c>
-      <c r="C93" s="56" t="s">
-        <v>214</v>
+      <c r="C93" s="63" t="s">
+        <v>213</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E93" s="54">
         <v>0</v>
@@ -26027,13 +26027,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:68" ht="128.25">
+    <row r="94" spans="2:68" ht="124.2">
       <c r="B94" s="3">
         <v>91</v>
       </c>
-      <c r="C94" s="59"/>
+      <c r="C94" s="61"/>
       <c r="D94" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E94" s="54">
         <v>2</v>
@@ -26169,7 +26169,7 @@
         <v>1</v>
       </c>
       <c r="AW94" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AX94" s="38">
         <v>4</v>
@@ -26230,13 +26230,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:68" ht="128.25">
+    <row r="95" spans="2:68" ht="124.2">
       <c r="B95" s="3">
         <v>92</v>
       </c>
-      <c r="C95" s="59"/>
+      <c r="C95" s="61"/>
       <c r="D95" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E95" s="54">
         <v>1</v>
@@ -26433,13 +26433,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:68" ht="128.25">
+    <row r="96" spans="2:68" ht="124.2">
       <c r="B96" s="3">
         <v>93</v>
       </c>
-      <c r="C96" s="57"/>
+      <c r="C96" s="62"/>
       <c r="D96" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E96" s="54">
         <v>3</v>
@@ -26575,7 +26575,7 @@
         <v>1</v>
       </c>
       <c r="AW96" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AX96" s="38">
         <v>8</v>
@@ -26611,7 +26611,7 @@
         <v>1</v>
       </c>
       <c r="BI96" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BJ96" s="38">
         <v>8</v>
@@ -26636,15 +26636,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:68" ht="71.25">
+    <row r="97" spans="2:68" ht="69">
       <c r="B97" s="3">
         <v>94</v>
       </c>
-      <c r="C97" s="56" t="s">
-        <v>215</v>
+      <c r="C97" s="63" t="s">
+        <v>214</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E97" s="54">
         <v>0</v>
@@ -26819,13 +26819,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:68" ht="71.25">
+    <row r="98" spans="2:68" ht="69">
       <c r="B98" s="3">
         <v>95</v>
       </c>
-      <c r="C98" s="57"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E98" s="54">
         <v>1</v>
@@ -27022,15 +27022,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:68" ht="42.75">
+    <row r="99" spans="2:68" ht="41.4">
       <c r="B99" s="3">
         <v>96</v>
       </c>
-      <c r="C99" s="56" t="s">
+      <c r="C99" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" s="52" t="s">
         <v>216</v>
-      </c>
-      <c r="D99" s="52" t="s">
-        <v>217</v>
       </c>
       <c r="E99" s="54">
         <f t="shared" ref="E99:E102" si="6">IF(F99="", 0, LEN(F99) - LEN(SUBSTITUTE(F99, CHAR(10), "")) + 1)</f>
@@ -27206,13 +27206,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:68" ht="42.75">
+    <row r="100" spans="2:68" ht="41.4">
       <c r="B100" s="3">
         <v>97</v>
       </c>
-      <c r="C100" s="57"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E100" s="54">
         <f t="shared" si="6"/>
@@ -27410,15 +27410,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:68" ht="71.25">
+    <row r="101" spans="2:68" ht="69">
       <c r="B101" s="3">
         <v>98</v>
       </c>
-      <c r="C101" s="56" t="s">
+      <c r="C101" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="52" t="s">
         <v>218</v>
-      </c>
-      <c r="D101" s="52" t="s">
-        <v>219</v>
       </c>
       <c r="E101" s="54">
         <f t="shared" si="6"/>
@@ -27594,13 +27594,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:68" ht="72" thickBot="1">
+    <row r="102" spans="2:68" ht="69.599999999999994" thickBot="1">
       <c r="B102" s="6">
         <v>99</v>
       </c>
-      <c r="C102" s="58"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E102" s="55">
         <f t="shared" si="6"/>
@@ -27798,7 +27798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:68" ht="15" thickBot="1">
+    <row r="103" spans="2:68" ht="14.4" thickBot="1">
       <c r="BO103" s="19" t="s">
         <v>97</v>
       </c>
@@ -27809,32 +27809,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C65:C68"/>
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="C101:C102"/>
@@ -27843,6 +27817,32 @@
     <mergeCell ref="C81:C88"/>
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="BD2:BI2"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576 X2 AJ2 AV2 BH2">
@@ -28003,14 +28003,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="58f62c55-904c-45ab-921a-aadd23c9ae33" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B77A9B715F068E49A7B077E32E57243A" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="424250edbcafd2ec72cecbf25ff02326">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58f62c55-904c-45ab-921a-aadd23c9ae33" xmlns:ns4="f146318e-9396-49ea-b06c-cd0efdf32951" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1fd45a25e0757d7ed25a597d0b5f65b8" ns3:_="" ns4:_="">
     <xsd:import namespace="58f62c55-904c-45ab-921a-aadd23c9ae33"/>
@@ -28251,6 +28243,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58f62c55-904c-45ab-921a-aadd23c9ae33" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDD6D5E5-ECB9-438E-99E0-1D766706DDC6}">
   <ds:schemaRefs>
@@ -28260,23 +28260,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB0BEC68-A8D2-41C9-8F24-363FE6B4FCA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f146318e-9396-49ea-b06c-cd0efdf32951"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58f62c55-904c-45ab-921a-aadd23c9ae33"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9FEB30-A332-41A1-8C33-F66ECE458AA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28293,4 +28276,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB0BEC68-A8D2-41C9-8F24-363FE6B4FCA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f146318e-9396-49ea-b06c-cd0efdf32951"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58f62c55-904c-45ab-921a-aadd23c9ae33"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>